--- a/attendance-files/HRM/HRM (C) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (C) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F96" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1665,9 +1665,15 @@
       <c r="M7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="N7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
@@ -1700,7 +1706,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>20</v>
@@ -1726,8 +1732,12 @@
       <c r="N8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="O8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
@@ -1760,7 +1770,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>20</v>
@@ -1783,9 +1793,15 @@
       <c r="M9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
+      <c r="N9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
@@ -1818,7 +1834,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>21</v>
@@ -1841,9 +1857,15 @@
       <c r="M10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="N10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
@@ -1872,11 +1894,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>21</v>
@@ -1899,9 +1921,15 @@
       <c r="M11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
+      <c r="N11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
@@ -1934,7 +1962,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>21</v>
@@ -1957,9 +1985,15 @@
       <c r="M12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="N12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
@@ -1992,7 +2026,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>21</v>
@@ -2015,9 +2049,15 @@
       <c r="M13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="N13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -2046,11 +2086,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>21</v>
@@ -2073,9 +2113,15 @@
       <c r="M14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="N14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -2108,7 +2154,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>21</v>
@@ -2131,9 +2177,15 @@
       <c r="M15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="N15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
@@ -2166,7 +2218,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>21</v>
@@ -2189,9 +2241,15 @@
       <c r="M16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="N16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
@@ -2224,7 +2282,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>21</v>
@@ -2247,9 +2305,15 @@
       <c r="M17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="N17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
@@ -2278,11 +2342,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>21</v>
@@ -2305,9 +2369,15 @@
       <c r="M18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="N18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
@@ -2336,11 +2406,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>20</v>
@@ -2363,9 +2433,15 @@
       <c r="M19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+      <c r="N19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
@@ -2398,7 +2474,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>20</v>
@@ -2421,9 +2497,15 @@
       <c r="M20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
+      <c r="N20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
@@ -2456,7 +2538,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>20</v>
@@ -2482,8 +2564,12 @@
       <c r="N21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="O21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
@@ -2516,7 +2602,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>20</v>
@@ -2539,9 +2625,15 @@
       <c r="M22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+      <c r="N22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
@@ -2574,7 +2666,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>20</v>
@@ -2597,9 +2689,15 @@
       <c r="M23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="N23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
@@ -2632,7 +2730,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>20</v>
@@ -2655,9 +2753,15 @@
       <c r="M24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="N24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
@@ -2690,7 +2794,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>20</v>
@@ -2713,9 +2817,15 @@
       <c r="M25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="N25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
@@ -2748,7 +2858,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>20</v>
@@ -2771,9 +2881,15 @@
       <c r="M26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="N26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
@@ -2806,7 +2922,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>21</v>
@@ -2829,9 +2945,15 @@
       <c r="M27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="N27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
@@ -2860,11 +2982,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>20</v>
@@ -2887,9 +3009,15 @@
       <c r="M28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="N28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
@@ -2918,11 +3046,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>20</v>
@@ -2945,9 +3073,15 @@
       <c r="M29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="N29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
@@ -2980,7 +3114,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>20</v>
@@ -3006,8 +3140,12 @@
       <c r="N30" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
+      <c r="O30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
@@ -3040,7 +3178,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>20</v>
@@ -3063,9 +3201,15 @@
       <c r="M31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
+      <c r="N31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
@@ -3094,11 +3238,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>21</v>
@@ -3121,9 +3265,15 @@
       <c r="M32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
+      <c r="N32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
@@ -3152,11 +3302,11 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>21</v>
@@ -3179,9 +3329,15 @@
       <c r="M33" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
+      <c r="N33" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
@@ -3214,7 +3370,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>21</v>
@@ -3237,9 +3393,15 @@
       <c r="M34" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
+      <c r="N34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
@@ -3268,11 +3430,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>20</v>
@@ -3295,9 +3457,15 @@
       <c r="M35" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
+      <c r="N35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
@@ -3326,11 +3494,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>21</v>
@@ -3353,9 +3521,15 @@
       <c r="M36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
+      <c r="N36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
@@ -3384,11 +3558,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>21</v>
@@ -3411,9 +3585,15 @@
       <c r="M37" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
+      <c r="N37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
@@ -3446,7 +3626,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>20</v>
@@ -3469,9 +3649,15 @@
       <c r="M38" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
+      <c r="N38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
@@ -3500,11 +3686,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>20</v>
@@ -3527,9 +3713,15 @@
       <c r="M39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="N39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
@@ -3562,7 +3754,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>21</v>
@@ -3585,9 +3777,15 @@
       <c r="M40" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="N40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
@@ -3620,7 +3818,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>21</v>
@@ -3643,9 +3841,15 @@
       <c r="M41" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
+      <c r="N41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
@@ -3678,7 +3882,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>21</v>
@@ -3704,8 +3908,12 @@
       <c r="N42" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
+      <c r="O42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
@@ -3738,7 +3946,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>21</v>
@@ -3761,9 +3969,15 @@
       <c r="M43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="N43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
@@ -3796,7 +4010,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>21</v>
@@ -3822,8 +4036,12 @@
       <c r="N44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="O44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
@@ -3856,10 +4074,10 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>21</v>
@@ -3879,9 +4097,15 @@
       <c r="M45" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
+      <c r="N45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
@@ -3910,11 +4134,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>21</v>
@@ -3937,9 +4161,15 @@
       <c r="M46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
+      <c r="N46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q46" s="38"/>
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
@@ -3972,7 +4202,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>21</v>
@@ -3995,9 +4225,15 @@
       <c r="M47" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
+      <c r="N47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
       <c r="S47" s="38"/>
@@ -4030,7 +4266,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>21</v>
@@ -4053,9 +4289,15 @@
       <c r="M48" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
+      <c r="N48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q48" s="38"/>
       <c r="R48" s="38"/>
       <c r="S48" s="38"/>
@@ -4084,11 +4326,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>21</v>
@@ -4111,9 +4353,15 @@
       <c r="M49" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
+      <c r="N49" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q49" s="38"/>
       <c r="R49" s="38"/>
       <c r="S49" s="38"/>
@@ -4146,7 +4394,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>20</v>
@@ -4169,9 +4417,15 @@
       <c r="M50" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
+      <c r="N50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q50" s="38"/>
       <c r="R50" s="38"/>
       <c r="S50" s="38"/>
@@ -4200,11 +4454,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -4227,9 +4481,15 @@
       <c r="M51" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
+      <c r="N51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q51" s="38"/>
       <c r="R51" s="38"/>
       <c r="S51" s="38"/>
@@ -4262,7 +4522,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>21</v>
@@ -4285,9 +4545,15 @@
       <c r="M52" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
+      <c r="N52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q52" s="38"/>
       <c r="R52" s="38"/>
       <c r="S52" s="38"/>
@@ -4320,7 +4586,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>20</v>
@@ -4346,8 +4612,12 @@
       <c r="N53" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
+      <c r="O53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q53" s="38"/>
       <c r="R53" s="38"/>
       <c r="S53" s="38"/>
@@ -4380,7 +4650,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>21</v>
@@ -4403,9 +4673,15 @@
       <c r="M54" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
+      <c r="N54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q54" s="38"/>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
@@ -4438,7 +4714,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>20</v>
@@ -4461,9 +4737,15 @@
       <c r="M55" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
+      <c r="N55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q55" s="38"/>
       <c r="R55" s="38"/>
       <c r="S55" s="38"/>
@@ -4492,11 +4774,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>21</v>
@@ -4519,9 +4801,15 @@
       <c r="M56" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
+      <c r="N56" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q56" s="38"/>
       <c r="R56" s="38"/>
       <c r="S56" s="38"/>
@@ -4554,7 +4842,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>21</v>
@@ -4577,9 +4865,15 @@
       <c r="M57" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
+      <c r="N57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q57" s="38"/>
       <c r="R57" s="38"/>
       <c r="S57" s="38"/>
@@ -4611,7 +4905,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>21</v>
@@ -4634,9 +4928,15 @@
       <c r="M58" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
+      <c r="N58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q58" s="38"/>
       <c r="R58" s="38"/>
       <c r="S58" s="38"/>
@@ -4664,11 +4964,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>21</v>
@@ -4691,9 +4991,15 @@
       <c r="M59" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
+      <c r="N59" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q59" s="38"/>
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
@@ -4722,11 +5028,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>20</v>
@@ -4749,9 +5055,15 @@
       <c r="M60" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
+      <c r="N60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q60" s="38"/>
       <c r="R60" s="38"/>
       <c r="S60" s="38"/>
@@ -4784,7 +5096,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>21</v>
@@ -4810,8 +5122,12 @@
       <c r="N61" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
+      <c r="O61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q61" s="38"/>
       <c r="R61" s="38"/>
       <c r="S61" s="38"/>
@@ -4840,11 +5156,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>21</v>
@@ -4867,9 +5183,15 @@
       <c r="M62" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
+      <c r="N62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
       <c r="S62" s="38"/>
@@ -4902,7 +5224,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>21</v>
@@ -4925,9 +5247,15 @@
       <c r="M63" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
+      <c r="N63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q63" s="38"/>
       <c r="R63" s="38"/>
       <c r="S63" s="38"/>
@@ -4956,7 +5284,7 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
@@ -4983,9 +5311,15 @@
       <c r="M64" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
+      <c r="N64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="38"/>
       <c r="R64" s="38"/>
       <c r="S64" s="38"/>
@@ -5014,11 +5348,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>20</v>
@@ -5041,9 +5375,15 @@
       <c r="M65" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
+      <c r="N65" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q65" s="38"/>
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
@@ -5072,11 +5412,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>20</v>
@@ -5099,9 +5439,15 @@
       <c r="M66" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
+      <c r="N66" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q66" s="38"/>
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
@@ -5130,11 +5476,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>21</v>
@@ -5157,9 +5503,15 @@
       <c r="M67" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
+      <c r="N67" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q67" s="38"/>
       <c r="R67" s="38"/>
       <c r="S67" s="38"/>
@@ -5192,7 +5544,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>21</v>
@@ -5218,8 +5570,12 @@
       <c r="N68" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
+      <c r="O68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q68" s="38"/>
       <c r="R68" s="38"/>
       <c r="S68" s="38"/>
@@ -5252,7 +5608,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>21</v>
@@ -5275,9 +5631,15 @@
       <c r="M69" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
+      <c r="N69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q69" s="38"/>
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>
@@ -5306,11 +5668,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>20</v>
@@ -5333,9 +5695,15 @@
       <c r="M70" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
+      <c r="N70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q70" s="38"/>
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
@@ -5368,7 +5736,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>21</v>
@@ -5391,9 +5759,15 @@
       <c r="M71" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
+      <c r="N71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
@@ -5422,11 +5796,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>21</v>
@@ -5449,9 +5823,15 @@
       <c r="M72" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
+      <c r="N72" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q72" s="38"/>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
@@ -5484,7 +5864,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>21</v>
@@ -5507,9 +5887,15 @@
       <c r="M73" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
+      <c r="N73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q73" s="38"/>
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
@@ -5542,7 +5928,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>21</v>
@@ -5565,9 +5951,15 @@
       <c r="M74" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
+      <c r="N74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q74" s="38"/>
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
@@ -5596,11 +5988,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>21</v>
@@ -5623,9 +6015,15 @@
       <c r="M75" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
+      <c r="N75" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q75" s="38"/>
       <c r="R75" s="38"/>
       <c r="S75" s="38"/>
@@ -5658,7 +6056,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>21</v>
@@ -5681,9 +6079,15 @@
       <c r="M76" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
+      <c r="N76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q76" s="38"/>
       <c r="R76" s="38"/>
       <c r="S76" s="38"/>
@@ -5712,11 +6116,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>21</v>
@@ -5739,9 +6143,15 @@
       <c r="M77" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
+      <c r="N77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="38"/>
       <c r="R77" s="38"/>
       <c r="S77" s="38"/>
@@ -5770,11 +6180,11 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>21</v>
@@ -5797,9 +6207,15 @@
       <c r="M78" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
+      <c r="N78" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q78" s="38"/>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>
@@ -5828,11 +6244,11 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>21</v>
@@ -5855,9 +6271,15 @@
       <c r="M79" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
+      <c r="N79" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q79" s="38"/>
       <c r="R79" s="38"/>
       <c r="S79" s="38"/>
@@ -5890,7 +6312,7 @@
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>21</v>
@@ -5916,8 +6338,12 @@
       <c r="N80" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
+      <c r="O80" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q80" s="38"/>
       <c r="R80" s="38"/>
       <c r="S80" s="38"/>
@@ -5946,11 +6372,11 @@
       </c>
       <c r="E81" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>20</v>
@@ -5973,9 +6399,15 @@
       <c r="M81" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
+      <c r="N81" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q81" s="38"/>
       <c r="R81" s="38"/>
       <c r="S81" s="38"/>
@@ -6008,7 +6440,7 @@
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>21</v>
@@ -6031,9 +6463,15 @@
       <c r="M82" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
+      <c r="N82" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P82" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q82" s="38"/>
       <c r="R82" s="38"/>
       <c r="S82" s="38"/>
